--- a/xlsx/体育_intext.xlsx
+++ b/xlsx/体育_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="388">
   <si>
     <t>体育</t>
   </si>
@@ -29,13 +29,13 @@
     <t>体育运动</t>
   </si>
   <si>
-    <t>政策_政策_美國_体育</t>
+    <t>政策_政策_美国_体育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%83%BD%E9%8D%9B%E9%8D%8A</t>
   </si>
   <si>
-    <t>體能鍛鍊</t>
+    <t>体能锻鍊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%AD%A6</t>
@@ -179,13 +179,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E6%93%8D</t>
   </si>
   <si>
-    <t>體操</t>
+    <t>体操</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E5%BE%91</t>
   </si>
   <si>
-    <t>田徑</t>
+    <t>田径</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%B3%B3</t>
@@ -203,37 +203,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E9%81%A9%E8%83%BD</t>
   </si>
   <si>
-    <t>體適能</t>
+    <t>体适能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%83%E9%A1%9E%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>球類運動</t>
+    <t>球类运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E9%81%8B</t>
   </si>
   <si>
-    <t>奧運</t>
+    <t>奥运</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E9%81%8B</t>
   </si>
   <si>
-    <t>世運</t>
+    <t>世运</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>運動會</t>
+    <t>运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E6%A0%A1%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>學校運動會</t>
+    <t>学校运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9C%E4%BC%BD</t>
@@ -245,13 +245,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E9%A6%AC%E6%9C%83%E9%AB%94%E8%97%9D%E4%B8%AD%E5%AD%B8</t>
   </si>
   <si>
-    <t>賽馬會體藝中學</t>
+    <t>赛马会体艺中学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E6%B0%A7%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>有氧運動</t>
+    <t>有氧运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DOI</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>俄羅斯教育</t>
+    <t>俄罗斯教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>藝術教育</t>
+    <t>艺术教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%92%E5%BA%97%E7%AE%A1%E7%90%86%E5%AD%A6</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>語言教育</t>
+    <t>语言教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6</t>
@@ -371,13 +371,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%B1%E8%AE%80%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>閱讀教育</t>
+    <t>阅读教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>科學教育</t>
+    <t>科学教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%95%99%E8%82%B2</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BC%E7%A8%9A%E5%9C%92</t>
   </si>
   <si>
-    <t>幼稚園</t>
+    <t>幼稚园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2</t>
@@ -425,13 +425,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A6%E9%A1%9E%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>另類學校</t>
+    <t>另类学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>民主學校</t>
+    <t>民主学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%8F%B2</t>
@@ -449,25 +449,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E4%B8%BB%E5%AD%B8%E7%BF%92</t>
   </si>
   <si>
-    <t>自主學習</t>
+    <t>自主学习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E5%AE%B6%E8%87%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>在家自學</t>
+    <t>在家自学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E8%BA%AB%E5%AD%B8%E7%BF%92</t>
   </si>
   <si>
-    <t>終身學習</t>
+    <t>终身学习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E8%BA%AB%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>終身教育</t>
+    <t>终身教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E6%94%B9%E9%9D%A9</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>教育哲學</t>
+    <t>教育哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E9%8C%84</t>
   </si>
   <si>
-    <t>目錄</t>
+    <t>目录</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Outline_of_education</t>
@@ -521,13 +521,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99</t>
   </si>
   <si>
-    <t>目標</t>
+    <t>目标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>人類學</t>
+    <t>人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E8%AF%84%E4%BC%B0</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>商業教育</t>
+    <t>商业教育</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Chemistry_education</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%AD%E8%A8%88%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>設計教育</t>
+    <t>设计教育</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Economics_education</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>環境教育</t>
+    <t>环境教育</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Euthenics</t>
@@ -683,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>哲學教育</t>
+    <t>哲学教育</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Religious_education</t>
@@ -713,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A6%E9%A1%9E%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>另類教育</t>
+    <t>另类教育</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gifted_education</t>
@@ -725,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%B6%AD%E5%9F%BA</t>
   </si>
   <si>
-    <t>中文維基</t>
+    <t>中文维基</t>
   </si>
   <si>
     <t>https://zh.wikiversity.org/wiki/Education</t>
@@ -743,25 +743,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E9%9A%8E%E6%AE%B5</t>
   </si>
   <si>
-    <t>教育階段</t>
+    <t>教育阶段</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E5%89%8D%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>學前教育</t>
+    <t>学前教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%AD%B8%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>小學教育</t>
+    <t>小学教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%AD%B8%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>中學教育</t>
+    <t>中学教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%9C%9F%E6%95%99%E8%82%B2</t>
@@ -779,9 +779,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%AD%B8</t>
   </si>
   <si>
-    <t>小學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9D%E7%BA%A7%E4%B8%AD%E5%AD%A6</t>
   </si>
   <si>
@@ -791,7 +788,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%B4%9A%E4%B8%AD%E5%AD%B8</t>
   </si>
   <si>
-    <t>高級中學</t>
+    <t>高级中学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Further_education</t>
@@ -821,13 +818,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E6%89%BF%E8%AE%A4%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
@@ -845,7 +842,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%95%99%E8%82%B2</t>
@@ -857,13 +854,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%A1%9E%E6%8B%9C%E7%84%B6%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>亞塞拜然教育</t>
+    <t>亚塞拜然教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9C%8B%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>蒙古國教育</t>
+    <t>蒙古国教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E6%95%99%E8%82%B2</t>
@@ -887,13 +884,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>朝鮮教育</t>
+    <t>朝鲜教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF%E6%96%AF%E5%9D%A6%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>吉爾吉斯斯坦教育</t>
+    <t>吉尔吉斯斯坦教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E6%95%99%E8%82%B2</t>
@@ -905,19 +902,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>馬來西亞教育</t>
+    <t>马来西亚教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%9C%B0%E5%A4%AB%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>馬爾地夫教育</t>
+    <t>马尔地夫教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E7%88%BE%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>尼泊爾教育</t>
+    <t>尼泊尔教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC%E6%95%99%E8%82%B2</t>
@@ -929,13 +926,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>卡達教育</t>
+    <t>卡达教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯教育</t>
+    <t>沙乌地阿拉伯教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E6%95%99%E8%82%B2</t>
@@ -947,13 +944,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>敘利亞教育</t>
+    <t>叙利亚教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>泰國教育</t>
+    <t>泰国教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E6%95%99%E8%82%B2</t>
@@ -965,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%81%AF%E9%85%8B%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>阿聯酋教育</t>
+    <t>阿联酋教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%95%99%E8%82%B2</t>
@@ -983,13 +980,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>中華民國教育</t>
+    <t>中华民国教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>臺灣教育</t>
+    <t>台湾教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%95%99%E8%82%B2</t>
@@ -1001,37 +998,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>澳門教育</t>
+    <t>澳门教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%87%BA%E5%8C%97</t>
   </si>
   <si>
-    <t>中華臺北</t>
+    <t>中华台北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國大會2758號決議</t>
+    <t>联合国大会2758号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>台灣問題</t>
+    <t>台湾问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B5%B7%E7%8F%BE%E7%8B%80</t>
   </si>
   <si>
-    <t>台海現狀</t>
+    <t>台海现状</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83%E8%A7%80%E5%AF%9F%E5%93%A1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國大會觀察員列表</t>
+    <t>联合国大会观察员列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E9%97%AE%E9%A2%98</t>
@@ -1049,19 +1046,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>奧地利教育</t>
+    <t>奥地利教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>丹麥教育</t>
+    <t>丹麦教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>芬蘭教育</t>
+    <t>芬兰教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E6%95%99%E8%82%B2</t>
@@ -1073,7 +1070,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>冰島教育</t>
+    <t>冰岛教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E6%95%99%E8%82%B2</t>
@@ -1085,7 +1082,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>荷蘭教育</t>
+    <t>荷兰教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E6%95%99%E8%82%B2</t>
@@ -1121,7 +1118,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -1145,7 +1142,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>紐西蘭教育</t>
+    <t>纽西兰教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E6%96%B0%E5%87%A0%E5%86%85%E4%BA%9A%E6%95%99%E8%82%B2</t>
@@ -1157,13 +1154,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>紐西蘭王國</t>
+    <t>纽西兰王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -1181,7 +1178,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -5612,7 +5609,7 @@
         <v>253</v>
       </c>
       <c r="F141" t="s">
-        <v>254</v>
+        <v>8</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -5638,10 +5635,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>254</v>
+      </c>
+      <c r="F142" t="s">
         <v>255</v>
-      </c>
-      <c r="F142" t="s">
-        <v>256</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5667,10 +5664,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>256</v>
+      </c>
+      <c r="F143" t="s">
         <v>257</v>
-      </c>
-      <c r="F143" t="s">
-        <v>258</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5725,10 +5722,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>258</v>
+      </c>
+      <c r="F145" t="s">
         <v>259</v>
-      </c>
-      <c r="F145" t="s">
-        <v>260</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5754,10 +5751,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>260</v>
+      </c>
+      <c r="F146" t="s">
         <v>261</v>
-      </c>
-      <c r="F146" t="s">
-        <v>262</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5783,10 +5780,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>262</v>
+      </c>
+      <c r="F147" t="s">
         <v>263</v>
-      </c>
-      <c r="F147" t="s">
-        <v>264</v>
       </c>
       <c r="G147" t="n">
         <v>10</v>
@@ -5812,10 +5809,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>264</v>
+      </c>
+      <c r="F148" t="s">
         <v>265</v>
-      </c>
-      <c r="F148" t="s">
-        <v>266</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -5841,10 +5838,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>266</v>
+      </c>
+      <c r="F149" t="s">
         <v>267</v>
-      </c>
-      <c r="F149" t="s">
-        <v>268</v>
       </c>
       <c r="G149" t="n">
         <v>7</v>
@@ -5870,10 +5867,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>268</v>
+      </c>
+      <c r="F150" t="s">
         <v>269</v>
-      </c>
-      <c r="F150" t="s">
-        <v>270</v>
       </c>
       <c r="G150" t="n">
         <v>6</v>
@@ -5899,10 +5896,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>270</v>
+      </c>
+      <c r="F151" t="s">
         <v>271</v>
-      </c>
-      <c r="F151" t="s">
-        <v>272</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5928,10 +5925,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>272</v>
+      </c>
+      <c r="F152" t="s">
         <v>273</v>
-      </c>
-      <c r="F152" t="s">
-        <v>274</v>
       </c>
       <c r="G152" t="n">
         <v>5</v>
@@ -5957,10 +5954,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>274</v>
+      </c>
+      <c r="F153" t="s">
         <v>275</v>
-      </c>
-      <c r="F153" t="s">
-        <v>276</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5986,10 +5983,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>276</v>
+      </c>
+      <c r="F154" t="s">
         <v>277</v>
-      </c>
-      <c r="F154" t="s">
-        <v>278</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6015,10 +6012,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>278</v>
+      </c>
+      <c r="F155" t="s">
         <v>279</v>
-      </c>
-      <c r="F155" t="s">
-        <v>280</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6044,10 +6041,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>280</v>
+      </c>
+      <c r="F156" t="s">
         <v>281</v>
-      </c>
-      <c r="F156" t="s">
-        <v>282</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6073,10 +6070,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>282</v>
+      </c>
+      <c r="F157" t="s">
         <v>283</v>
-      </c>
-      <c r="F157" t="s">
-        <v>284</v>
       </c>
       <c r="G157" t="n">
         <v>4</v>
@@ -6102,10 +6099,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>284</v>
+      </c>
+      <c r="F158" t="s">
         <v>285</v>
-      </c>
-      <c r="F158" t="s">
-        <v>286</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6131,10 +6128,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>286</v>
+      </c>
+      <c r="F159" t="s">
         <v>287</v>
-      </c>
-      <c r="F159" t="s">
-        <v>288</v>
       </c>
       <c r="G159" t="n">
         <v>3</v>
@@ -6160,10 +6157,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>288</v>
+      </c>
+      <c r="F160" t="s">
         <v>289</v>
-      </c>
-      <c r="F160" t="s">
-        <v>290</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6189,10 +6186,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>290</v>
+      </c>
+      <c r="F161" t="s">
         <v>291</v>
-      </c>
-      <c r="F161" t="s">
-        <v>292</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6218,10 +6215,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>292</v>
+      </c>
+      <c r="F162" t="s">
         <v>293</v>
-      </c>
-      <c r="F162" t="s">
-        <v>294</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6247,10 +6244,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>294</v>
+      </c>
+      <c r="F163" t="s">
         <v>295</v>
-      </c>
-      <c r="F163" t="s">
-        <v>296</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6276,10 +6273,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>296</v>
+      </c>
+      <c r="F164" t="s">
         <v>297</v>
-      </c>
-      <c r="F164" t="s">
-        <v>298</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6305,10 +6302,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>298</v>
+      </c>
+      <c r="F165" t="s">
         <v>299</v>
-      </c>
-      <c r="F165" t="s">
-        <v>300</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6334,10 +6331,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>300</v>
+      </c>
+      <c r="F166" t="s">
         <v>301</v>
-      </c>
-      <c r="F166" t="s">
-        <v>302</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6363,10 +6360,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>302</v>
+      </c>
+      <c r="F167" t="s">
         <v>303</v>
-      </c>
-      <c r="F167" t="s">
-        <v>304</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6421,10 +6418,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>304</v>
+      </c>
+      <c r="F169" t="s">
         <v>305</v>
-      </c>
-      <c r="F169" t="s">
-        <v>306</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6450,10 +6447,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>306</v>
+      </c>
+      <c r="F170" t="s">
         <v>307</v>
-      </c>
-      <c r="F170" t="s">
-        <v>308</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6479,10 +6476,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>308</v>
+      </c>
+      <c r="F171" t="s">
         <v>309</v>
-      </c>
-      <c r="F171" t="s">
-        <v>310</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6508,10 +6505,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>310</v>
+      </c>
+      <c r="F172" t="s">
         <v>311</v>
-      </c>
-      <c r="F172" t="s">
-        <v>312</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6537,10 +6534,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>312</v>
+      </c>
+      <c r="F173" t="s">
         <v>313</v>
-      </c>
-      <c r="F173" t="s">
-        <v>314</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -6566,10 +6563,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>314</v>
+      </c>
+      <c r="F174" t="s">
         <v>315</v>
-      </c>
-      <c r="F174" t="s">
-        <v>316</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6595,10 +6592,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>316</v>
+      </c>
+      <c r="F175" t="s">
         <v>317</v>
-      </c>
-      <c r="F175" t="s">
-        <v>318</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6624,10 +6621,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>270</v>
+      </c>
+      <c r="F176" t="s">
         <v>271</v>
-      </c>
-      <c r="F176" t="s">
-        <v>272</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6653,10 +6650,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>318</v>
+      </c>
+      <c r="F177" t="s">
         <v>319</v>
-      </c>
-      <c r="F177" t="s">
-        <v>320</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -6682,10 +6679,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>320</v>
+      </c>
+      <c r="F178" t="s">
         <v>321</v>
-      </c>
-      <c r="F178" t="s">
-        <v>322</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6711,10 +6708,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>322</v>
+      </c>
+      <c r="F179" t="s">
         <v>323</v>
-      </c>
-      <c r="F179" t="s">
-        <v>324</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -6740,10 +6737,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>324</v>
+      </c>
+      <c r="F180" t="s">
         <v>325</v>
-      </c>
-      <c r="F180" t="s">
-        <v>326</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -6769,10 +6766,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>326</v>
+      </c>
+      <c r="F181" t="s">
         <v>327</v>
-      </c>
-      <c r="F181" t="s">
-        <v>328</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -6798,10 +6795,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>328</v>
+      </c>
+      <c r="F182" t="s">
         <v>329</v>
-      </c>
-      <c r="F182" t="s">
-        <v>330</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6827,10 +6824,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>330</v>
+      </c>
+      <c r="F183" t="s">
         <v>331</v>
-      </c>
-      <c r="F183" t="s">
-        <v>332</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6856,10 +6853,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>332</v>
+      </c>
+      <c r="F184" t="s">
         <v>333</v>
-      </c>
-      <c r="F184" t="s">
-        <v>334</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6885,10 +6882,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>334</v>
+      </c>
+      <c r="F185" t="s">
         <v>335</v>
-      </c>
-      <c r="F185" t="s">
-        <v>336</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6914,10 +6911,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>336</v>
+      </c>
+      <c r="F186" t="s">
         <v>337</v>
-      </c>
-      <c r="F186" t="s">
-        <v>338</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6943,10 +6940,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>338</v>
+      </c>
+      <c r="F187" t="s">
         <v>339</v>
-      </c>
-      <c r="F187" t="s">
-        <v>340</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6972,10 +6969,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>340</v>
+      </c>
+      <c r="F188" t="s">
         <v>341</v>
-      </c>
-      <c r="F188" t="s">
-        <v>342</v>
       </c>
       <c r="G188" t="n">
         <v>4</v>
@@ -7001,10 +6998,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>342</v>
+      </c>
+      <c r="F189" t="s">
         <v>343</v>
-      </c>
-      <c r="F189" t="s">
-        <v>344</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7030,10 +7027,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>344</v>
+      </c>
+      <c r="F190" t="s">
         <v>345</v>
-      </c>
-      <c r="F190" t="s">
-        <v>346</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7059,10 +7056,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>346</v>
+      </c>
+      <c r="F191" t="s">
         <v>347</v>
-      </c>
-      <c r="F191" t="s">
-        <v>348</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7088,10 +7085,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>348</v>
+      </c>
+      <c r="F192" t="s">
         <v>349</v>
-      </c>
-      <c r="F192" t="s">
-        <v>350</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7117,10 +7114,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>350</v>
+      </c>
+      <c r="F193" t="s">
         <v>351</v>
-      </c>
-      <c r="F193" t="s">
-        <v>352</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7146,10 +7143,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>352</v>
+      </c>
+      <c r="F194" t="s">
         <v>353</v>
-      </c>
-      <c r="F194" t="s">
-        <v>354</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7175,10 +7172,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>354</v>
+      </c>
+      <c r="F195" t="s">
         <v>355</v>
-      </c>
-      <c r="F195" t="s">
-        <v>356</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7204,10 +7201,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>356</v>
+      </c>
+      <c r="F196" t="s">
         <v>357</v>
-      </c>
-      <c r="F196" t="s">
-        <v>358</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7233,10 +7230,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>358</v>
+      </c>
+      <c r="F197" t="s">
         <v>359</v>
-      </c>
-      <c r="F197" t="s">
-        <v>360</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7262,10 +7259,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>360</v>
+      </c>
+      <c r="F198" t="s">
         <v>361</v>
-      </c>
-      <c r="F198" t="s">
-        <v>362</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7291,10 +7288,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>362</v>
+      </c>
+      <c r="F199" t="s">
         <v>363</v>
-      </c>
-      <c r="F199" t="s">
-        <v>364</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7320,10 +7317,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>270</v>
+      </c>
+      <c r="F200" t="s">
         <v>271</v>
-      </c>
-      <c r="F200" t="s">
-        <v>272</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7349,10 +7346,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>364</v>
+      </c>
+      <c r="F201" t="s">
         <v>365</v>
-      </c>
-      <c r="F201" t="s">
-        <v>366</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7378,10 +7375,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>366</v>
+      </c>
+      <c r="F202" t="s">
         <v>367</v>
-      </c>
-      <c r="F202" t="s">
-        <v>368</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7407,10 +7404,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>368</v>
+      </c>
+      <c r="F203" t="s">
         <v>369</v>
-      </c>
-      <c r="F203" t="s">
-        <v>370</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7436,10 +7433,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>370</v>
+      </c>
+      <c r="F204" t="s">
         <v>371</v>
-      </c>
-      <c r="F204" t="s">
-        <v>372</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7465,10 +7462,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>372</v>
+      </c>
+      <c r="F205" t="s">
         <v>373</v>
-      </c>
-      <c r="F205" t="s">
-        <v>374</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -7494,10 +7491,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>374</v>
+      </c>
+      <c r="F206" t="s">
         <v>375</v>
-      </c>
-      <c r="F206" t="s">
-        <v>376</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7523,10 +7520,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>376</v>
+      </c>
+      <c r="F207" t="s">
         <v>377</v>
-      </c>
-      <c r="F207" t="s">
-        <v>378</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7552,10 +7549,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>378</v>
+      </c>
+      <c r="F208" t="s">
         <v>379</v>
-      </c>
-      <c r="F208" t="s">
-        <v>380</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7581,10 +7578,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>380</v>
+      </c>
+      <c r="F209" t="s">
         <v>381</v>
-      </c>
-      <c r="F209" t="s">
-        <v>382</v>
       </c>
       <c r="G209" t="n">
         <v>3</v>
@@ -7610,10 +7607,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>382</v>
+      </c>
+      <c r="F210" t="s">
         <v>383</v>
-      </c>
-      <c r="F210" t="s">
-        <v>384</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7639,10 +7636,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>384</v>
+      </c>
+      <c r="F211" t="s">
         <v>385</v>
-      </c>
-      <c r="F211" t="s">
-        <v>386</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7668,10 +7665,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>386</v>
+      </c>
+      <c r="F212" t="s">
         <v>387</v>
-      </c>
-      <c r="F212" t="s">
-        <v>388</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>

--- a/xlsx/体育_intext.xlsx
+++ b/xlsx/体育_intext.xlsx
@@ -15,1173 +15,1179 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="391">
   <si>
     <t>体育</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%82%B2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%93%E8%82%B2%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>体育运动</t>
+  </si>
+  <si>
+    <t>体育运动_体育运动_体育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%83%BD%E9%8D%9B%E9%8D%8A</t>
+  </si>
+  <si>
+    <t>體能鍛鍊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>小学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>中学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
+  </si>
+  <si>
+    <t>葡萄牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E5%9E%8BH1N1%E6%B5%81%E6%84%9F</t>
+  </si>
+  <si>
+    <t>甲型H1N1流感</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/GPS</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>武术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%94%E8%A7%92</t>
+  </si>
+  <si>
+    <t>摔角</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%A3%E6%89%93</t>
+  </si>
+  <si>
+    <t>散打</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Wii</t>
+  </si>
+  <si>
+    <t>Wii</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>菲律宾人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E6%89%8B%E9%81%93</t>
+  </si>
+  <si>
+    <t>空手道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>韩国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>马来西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%BD%E6%AF%9B%E7%90%83</t>
+  </si>
+  <si>
+    <t>羽毛球</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%B3%E7%90%83</t>
+  </si>
+  <si>
+    <t>足球</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AF%AE%E7%90%83</t>
+  </si>
+  <si>
+    <t>篮球</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%90%83</t>
+  </si>
+  <si>
+    <t>网球</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>中华人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%94%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威尔士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
+  </si>
+  <si>
+    <t>波兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%88%9E%E8%B9%88</t>
+  </si>
+  <si>
+    <t>舞蹈</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E6%93%8D</t>
+  </si>
+  <si>
+    <t>體操</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E5%BE%91</t>
+  </si>
+  <si>
+    <t>田徑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%B3%B3</t>
+  </si>
+  <si>
+    <t>游泳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7</t>
+  </si>
+  <si>
+    <t>健康</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E9%81%A9%E8%83%BD</t>
+  </si>
+  <si>
+    <t>體適能</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%83%E9%A1%9E%E9%81%8B%E5%8B%95</t>
+  </si>
+  <si>
+    <t>球類運動</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E9%81%8B</t>
+  </si>
+  <si>
+    <t>奧運</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E9%81%8B</t>
+  </si>
+  <si>
+    <t>世運</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E6%9C%83</t>
+  </si>
+  <si>
+    <t>運動會</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E6%A0%A1%E9%81%8B%E5%8B%95%E6%9C%83</t>
+  </si>
+  <si>
+    <t>學校運動會</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9C%E4%BC%BD</t>
+  </si>
+  <si>
+    <t>瑜伽</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E9%A6%AC%E6%9C%83%E9%AB%94%E8%97%9D%E4%B8%AD%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>賽馬會體藝中學</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E6%B0%A7%E9%81%8B%E5%8B%95</t>
+  </si>
+  <si>
+    <t>有氧運動</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/DOI</t>
+  </si>
+  <si>
+    <t>DOI</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
+  </si>
+  <si>
+    <t>Wayback Machine</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>澳大利亚教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>中国教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>法国教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>德国教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>印度教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>日本教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>俄羅斯教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>藝術教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%85%92%E5%BA%97%E7%AE%A1%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>酒店管理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>語言教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>法学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>数学教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E4%B9%90%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>音乐教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>和平教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>物理教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%96%B1%E8%AE%80%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>閱讀教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>科學教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>性教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%8C%E4%B8%9A%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>职业教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%BC%E7%A8%9A%E5%9C%92</t>
+  </si>
+  <si>
+    <t>幼稚園</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>高等教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%A7%91%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>本科教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6%E6%89%80</t>
+  </si>
+  <si>
+    <t>研究所</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>学校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A6%E9%A1%9E%E5%AD%B8%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>另類學校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%AD%B8%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>民主學校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>教育史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>教育家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E4%B8%BB%E5%AD%B8%E7%BF%92</t>
+  </si>
+  <si>
+    <t>自主學習</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E5%AE%B6%E8%87%AA%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>在家自學</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E8%BA%AB%E5%AD%B8%E7%BF%92</t>
+  </si>
+  <si>
+    <t>終身學習</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E8%BA%AB%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>終身教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E6%94%B9%E9%9D%A9</t>
+  </si>
+  <si>
+    <t>教育改革</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%AE%8A%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>特殊教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%93%B2%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>教育哲學</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%BF%83%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>教育心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E6%8A%80%E6%9C%AF%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>教育技术学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Glossary_of_education-related_terms</t>
+  </si>
+  <si>
+    <t>en-Glossary of education-related terms</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E9%8C%84</t>
+  </si>
+  <si>
+    <t>目錄</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Outline_of_education</t>
+  </si>
+  <si>
+    <t>en-Outline of education</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99</t>
+  </si>
+  <si>
+    <t>目標</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>人類學</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E8%AF%84%E4%BC%B0</t>
+  </si>
+  <si>
+    <t>教育评估</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>教育经济学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Educational_leadership</t>
+  </si>
+  <si>
+    <t>en-Educational leadership</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Education_policy</t>
+  </si>
+  <si>
+    <t>en-Education policy</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Politics_in_education</t>
+  </si>
+  <si>
+    <t>en-Politics in education</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>教育研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%97%E6%95%99%E8%82%B2%E6%9D%83</t>
+  </si>
+  <si>
+    <t>受教育权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>教育社会学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Education_theory</t>
+  </si>
+  <si>
+    <t>en-Education theory</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Types_of_educational_institutions</t>
+  </si>
+  <si>
+    <t>en-Types of educational institutions</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agricultural_education</t>
+  </si>
+  <si>
+    <t>en-Agricultural education</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bilingual_education</t>
+  </si>
+  <si>
+    <t>en-Bilingual education</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>商業教育</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Chemistry_education</t>
+  </si>
+  <si>
+    <t>en-Chemistry education</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A8%AD%E8%A8%88%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>設計教育</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Economics_education</t>
+  </si>
+  <si>
+    <t>en-Economics education</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Engineering_education</t>
+  </si>
+  <si>
+    <t>en-Engineering education</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>環境教育</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Euthenics</t>
+  </si>
+  <si>
+    <t>en-Euthenics</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>健康教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>法律教育</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Medical_education</t>
+  </si>
+  <si>
+    <t>en-Medical education</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E8%AE%AD</t>
+  </si>
+  <si>
+    <t>军训</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Nurse_education</t>
+  </si>
+  <si>
+    <t>en-Nurse education</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Performing_arts_education</t>
+  </si>
+  <si>
+    <t>en-Performing arts education</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>哲學教育</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Religious_education</t>
+  </si>
+  <si>
+    <t>en-Religious education</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Teacher_education</t>
+  </si>
+  <si>
+    <t>en-Teacher education</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Technology_education</t>
+  </si>
+  <si>
+    <t>en-Technology education</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Values_education</t>
+  </si>
+  <si>
+    <t>en-Values education</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A6%E9%A1%9E%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>另類教育</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Gifted_education</t>
+  </si>
+  <si>
+    <t>en-Gifted education</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%B6%AD%E5%9F%BA</t>
+  </si>
+  <si>
+    <t>中文維基</t>
+  </si>
+  <si>
+    <t>https://zh.wikiversity.org/wiki/Education</t>
+  </si>
+  <si>
+    <t>v-Education</t>
+  </si>
+  <si>
+    <t>https://zh.wikiquote.org/wiki/Education</t>
+  </si>
+  <si>
+    <t>q-Education</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E9%9A%8E%E6%AE%B5</t>
+  </si>
+  <si>
+    <t>教育階段</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E5%89%8D%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>學前教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%AD%B8%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>小學教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%AD%B8%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>中學教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%9C%9F%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>第三期教育</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Preschool</t>
+  </si>
+  <si>
+    <t>en-Preschool</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>小學</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%9D%E7%BA%A7%E4%B8%AD%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>初级中学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%B4%9A%E4%B8%AD%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>高級中學</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Further_education</t>
+  </si>
+  <si>
+    <t>en-Further education</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%90%E4%BA%BA%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>成人教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E9%9D%9E%E6%B4%B2%E9%A2%98%E7%9B%AE</t>
+  </si>
+  <si>
+    <t>Template talk-非洲题目</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>聯合國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>聯合國會員國列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E6%89%BF%E8%AE%A4%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>有限承认国家列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>亞洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>阿富汗教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%A1%9E%E6%8B%9C%E7%84%B6%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>亞塞拜然教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9C%8B%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>蒙古國教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>塞浦路斯教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>伊朗教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>以色列教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>朝鮮教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF%E6%96%AF%E5%9D%A6%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>吉爾吉斯斯坦教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>黎巴嫩教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>馬來西亞教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%9C%B0%E5%A4%AB%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>馬爾地夫教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E7%88%BE%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>尼泊爾教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>阿曼教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>卡達教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>沙烏地阿拉伯教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>新加坡教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>敘利亞教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>泰國教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>土耳其教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%81%AF%E9%85%8B%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>阿聯酋教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>越南教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>巴勒斯坦教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>中華民國教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>臺灣教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>香港教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>澳門教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%87%BA%E5%8C%97</t>
+  </si>
+  <si>
+    <t>中華臺北</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
+  </si>
+  <si>
+    <t>聯合國大會2758號決議</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%95%8F%E9%A1%8C</t>
+  </si>
+  <si>
+    <t>台灣問題</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B5%B7%E7%8F%BE%E7%8B%80</t>
+  </si>
+  <si>
+    <t>台海現狀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83%E8%A7%80%E5%AF%9F%E5%93%A1%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>聯合國大會觀察員列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>巴勒斯坦问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>奧地利教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>丹麥教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>芬蘭教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>希腊教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>冰島教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>意大利教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>荷蘭教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>挪威教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>西班牙教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>瑞典教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>瑞士教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>法罗群岛教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>主權</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>古巴教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>大洋洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>紐西蘭教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E6%96%B0%E5%87%A0%E5%86%85%E4%BA%9A%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>巴布亚新几内亚教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD%E7%8E%8B%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>紐西蘭王國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>權威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>美国国会图书馆控制号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>國立國會圖書館</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%93%E8%82%B2%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>体育运动</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_体育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%83%BD%E9%8D%9B%E9%8D%8A</t>
-  </si>
-  <si>
-    <t>體能鍛鍊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>小学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>中学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E5%9E%8BH1N1%E6%B5%81%E6%84%9F</t>
-  </si>
-  <si>
-    <t>甲型H1N1流感</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/GPS</t>
-  </si>
-  <si>
-    <t>GPS</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>武术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%94%E8%A7%92</t>
-  </si>
-  <si>
-    <t>摔角</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%A3%E6%89%93</t>
-  </si>
-  <si>
-    <t>散打</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Wii</t>
-  </si>
-  <si>
-    <t>Wii</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>菲律宾人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E6%89%8B%E9%81%93</t>
-  </si>
-  <si>
-    <t>空手道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>韩国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>马来西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%BD%E6%AF%9B%E7%90%83</t>
-  </si>
-  <si>
-    <t>羽毛球</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%B3%E7%90%83</t>
-  </si>
-  <si>
-    <t>足球</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AF%AE%E7%90%83</t>
-  </si>
-  <si>
-    <t>篮球</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%90%83</t>
-  </si>
-  <si>
-    <t>网球</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%94%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>威尔士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%88%9E%E8%B9%88</t>
-  </si>
-  <si>
-    <t>舞蹈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E6%93%8D</t>
-  </si>
-  <si>
-    <t>體操</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E5%BE%91</t>
-  </si>
-  <si>
-    <t>田徑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%B3%B3</t>
-  </si>
-  <si>
-    <t>游泳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7</t>
-  </si>
-  <si>
-    <t>健康</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E9%81%A9%E8%83%BD</t>
-  </si>
-  <si>
-    <t>體適能</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%83%E9%A1%9E%E9%81%8B%E5%8B%95</t>
-  </si>
-  <si>
-    <t>球類運動</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E9%81%8B</t>
-  </si>
-  <si>
-    <t>奧運</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E9%81%8B</t>
-  </si>
-  <si>
-    <t>世運</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E6%9C%83</t>
-  </si>
-  <si>
-    <t>運動會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E6%A0%A1%E9%81%8B%E5%8B%95%E6%9C%83</t>
-  </si>
-  <si>
-    <t>學校運動會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9C%E4%BC%BD</t>
-  </si>
-  <si>
-    <t>瑜伽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E9%A6%AC%E6%9C%83%E9%AB%94%E8%97%9D%E4%B8%AD%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>賽馬會體藝中學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E6%B0%A7%E9%81%8B%E5%8B%95</t>
-  </si>
-  <si>
-    <t>有氧運動</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/DOI</t>
-  </si>
-  <si>
-    <t>DOI</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
-  </si>
-  <si>
-    <t>Wayback Machine</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>澳大利亚教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>中国教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>法国教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>德国教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>印度教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>日本教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>俄羅斯教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>藝術教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%85%92%E5%BA%97%E7%AE%A1%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>酒店管理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>語言教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>法学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>数学教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E4%B9%90%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>音乐教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>和平教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>物理教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%96%B1%E8%AE%80%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>閱讀教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>科學教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>性教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%8C%E4%B8%9A%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>职业教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%BC%E7%A8%9A%E5%9C%92</t>
-  </si>
-  <si>
-    <t>幼稚園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>高等教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%A7%91%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>本科教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6%E6%89%80</t>
-  </si>
-  <si>
-    <t>研究所</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>学校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A6%E9%A1%9E%E5%AD%B8%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>另類學校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%AD%B8%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>民主學校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>教育史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>教育家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E4%B8%BB%E5%AD%B8%E7%BF%92</t>
-  </si>
-  <si>
-    <t>自主學習</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E5%AE%B6%E8%87%AA%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>在家自學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E8%BA%AB%E5%AD%B8%E7%BF%92</t>
-  </si>
-  <si>
-    <t>終身學習</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E8%BA%AB%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>終身教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E6%94%B9%E9%9D%A9</t>
-  </si>
-  <si>
-    <t>教育改革</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%AE%8A%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>特殊教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%93%B2%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>教育哲學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%BF%83%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>教育心理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E6%8A%80%E6%9C%AF%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>教育技术学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Glossary_of_education-related_terms</t>
-  </si>
-  <si>
-    <t>en-Glossary of education-related terms</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E9%8C%84</t>
-  </si>
-  <si>
-    <t>目錄</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Outline_of_education</t>
-  </si>
-  <si>
-    <t>en-Outline of education</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99</t>
-  </si>
-  <si>
-    <t>目標</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>人類學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E8%AF%84%E4%BC%B0</t>
-  </si>
-  <si>
-    <t>教育评估</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>教育经济学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Educational_leadership</t>
-  </si>
-  <si>
-    <t>en-Educational leadership</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Education_policy</t>
-  </si>
-  <si>
-    <t>en-Education policy</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Politics_in_education</t>
-  </si>
-  <si>
-    <t>en-Politics in education</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>教育研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%97%E6%95%99%E8%82%B2%E6%9D%83</t>
-  </si>
-  <si>
-    <t>受教育权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>教育社会学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Education_theory</t>
-  </si>
-  <si>
-    <t>en-Education theory</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Types_of_educational_institutions</t>
-  </si>
-  <si>
-    <t>en-Types of educational institutions</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Agricultural_education</t>
-  </si>
-  <si>
-    <t>en-Agricultural education</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bilingual_education</t>
-  </si>
-  <si>
-    <t>en-Bilingual education</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>商業教育</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Chemistry_education</t>
-  </si>
-  <si>
-    <t>en-Chemistry education</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A8%AD%E8%A8%88%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>設計教育</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Economics_education</t>
-  </si>
-  <si>
-    <t>en-Economics education</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Engineering_education</t>
-  </si>
-  <si>
-    <t>en-Engineering education</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>環境教育</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Euthenics</t>
-  </si>
-  <si>
-    <t>en-Euthenics</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>健康教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>法律教育</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Medical_education</t>
-  </si>
-  <si>
-    <t>en-Medical education</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E8%AE%AD</t>
-  </si>
-  <si>
-    <t>军训</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Nurse_education</t>
-  </si>
-  <si>
-    <t>en-Nurse education</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Performing_arts_education</t>
-  </si>
-  <si>
-    <t>en-Performing arts education</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>哲學教育</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Religious_education</t>
-  </si>
-  <si>
-    <t>en-Religious education</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Teacher_education</t>
-  </si>
-  <si>
-    <t>en-Teacher education</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Technology_education</t>
-  </si>
-  <si>
-    <t>en-Technology education</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Values_education</t>
-  </si>
-  <si>
-    <t>en-Values education</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A6%E9%A1%9E%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>另類教育</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Gifted_education</t>
-  </si>
-  <si>
-    <t>en-Gifted education</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%B6%AD%E5%9F%BA</t>
-  </si>
-  <si>
-    <t>中文維基</t>
-  </si>
-  <si>
-    <t>https://zh.wikiversity.org/wiki/Education</t>
-  </si>
-  <si>
-    <t>v-Education</t>
-  </si>
-  <si>
-    <t>https://zh.wikiquote.org/wiki/Education</t>
-  </si>
-  <si>
-    <t>q-Education</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E9%9A%8E%E6%AE%B5</t>
-  </si>
-  <si>
-    <t>教育階段</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E5%89%8D%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>學前教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%AD%B8%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>小學教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%AD%B8%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>中學教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%9C%9F%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>第三期教育</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Preschool</t>
-  </si>
-  <si>
-    <t>en-Preschool</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>小學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%9D%E7%BA%A7%E4%B8%AD%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>初级中学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%B4%9A%E4%B8%AD%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>高級中學</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Further_education</t>
-  </si>
-  <si>
-    <t>en-Further education</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%90%E4%BA%BA%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>成人教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E9%9D%9E%E6%B4%B2%E9%A2%98%E7%9B%AE</t>
-  </si>
-  <si>
-    <t>Template talk-非洲题目</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>聯合國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>聯合國會員國列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E6%89%BF%E8%AE%A4%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>有限承认国家列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>属地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>亞洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>阿富汗教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%A1%9E%E6%8B%9C%E7%84%B6%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>亞塞拜然教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9C%8B%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>蒙古國教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>塞浦路斯教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>伊朗教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>以色列教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>朝鮮教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF%E6%96%AF%E5%9D%A6%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>吉爾吉斯斯坦教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>黎巴嫩教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>馬來西亞教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%9C%B0%E5%A4%AB%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>馬爾地夫教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E7%88%BE%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>尼泊爾教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>阿曼教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>卡達教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>沙烏地阿拉伯教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>新加坡教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>敘利亞教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>泰國教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>土耳其教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%81%AF%E9%85%8B%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>阿聯酋教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>越南教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>巴勒斯坦教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>中華民國教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>臺灣教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>香港教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>澳門教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%87%BA%E5%8C%97</t>
-  </si>
-  <si>
-    <t>中華臺北</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
-  </si>
-  <si>
-    <t>聯合國大會2758號決議</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%95%8F%E9%A1%8C</t>
-  </si>
-  <si>
-    <t>台灣問題</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B5%B7%E7%8F%BE%E7%8B%80</t>
-  </si>
-  <si>
-    <t>台海現狀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83%E8%A7%80%E5%AF%9F%E5%93%A1%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>聯合國大會觀察員列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>巴勒斯坦问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>欧洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>奧地利教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>丹麥教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>芬蘭教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>希腊教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>冰島教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>意大利教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>荷蘭教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>挪威教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>西班牙教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>瑞典教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>瑞士教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>法罗群岛教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>主權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>古巴教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>紐西蘭教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E6%96%B0%E5%87%A0%E5%86%85%E4%BA%9A%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>巴布亚新几内亚教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD%E7%8E%8B%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>紐西蘭王國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>美国国会图书馆控制号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>國立國會圖書館</t>
+    <t>浏览条目正文[c]</t>
   </si>
 </sst>
 </file>
@@ -1530,7 +1536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I212"/>
+  <dimension ref="A1:I213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1590,7 +1596,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1619,7 +1625,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1648,7 +1654,7 @@
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1677,7 +1683,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1706,7 +1712,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1735,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1764,7 +1770,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1793,7 +1799,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1822,7 +1828,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1851,7 +1857,7 @@
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1880,7 +1886,7 @@
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1909,7 +1915,7 @@
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1938,7 +1944,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1967,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1996,7 +2002,7 @@
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2025,7 +2031,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2054,7 +2060,7 @@
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2083,7 +2089,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2112,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2141,7 +2147,7 @@
         <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2170,7 +2176,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2199,7 +2205,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2228,7 +2234,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2257,7 +2263,7 @@
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2286,7 +2292,7 @@
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2315,7 +2321,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2344,7 +2350,7 @@
         <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2373,7 +2379,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2402,7 +2408,7 @@
         <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2431,7 +2437,7 @@
         <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2460,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2489,7 +2495,7 @@
         <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2518,7 +2524,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2547,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2576,7 +2582,7 @@
         <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2605,7 +2611,7 @@
         <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2634,7 +2640,7 @@
         <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2663,7 +2669,7 @@
         <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2692,7 +2698,7 @@
         <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2721,7 +2727,7 @@
         <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2750,7 +2756,7 @@
         <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2779,7 +2785,7 @@
         <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2808,7 +2814,7 @@
         <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2837,7 +2843,7 @@
         <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2866,7 +2872,7 @@
         <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2895,7 +2901,7 @@
         <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2924,7 +2930,7 @@
         <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2953,7 +2959,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2982,7 +2988,7 @@
         <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3011,7 +3017,7 @@
         <v>4</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3040,7 +3046,7 @@
         <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3069,7 +3075,7 @@
         <v>4</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3098,7 +3104,7 @@
         <v>4</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3127,7 +3133,7 @@
         <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3156,7 +3162,7 @@
         <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3185,7 +3191,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3214,7 +3220,7 @@
         <v>4</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3243,7 +3249,7 @@
         <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3272,7 +3278,7 @@
         <v>4</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3301,7 +3307,7 @@
         <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3330,7 +3336,7 @@
         <v>4</v>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3359,7 +3365,7 @@
         <v>4</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3388,7 +3394,7 @@
         <v>4</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3417,7 +3423,7 @@
         <v>4</v>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3446,7 +3452,7 @@
         <v>4</v>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3475,7 +3481,7 @@
         <v>4</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3504,7 +3510,7 @@
         <v>4</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3533,7 +3539,7 @@
         <v>4</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3562,7 +3568,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3591,7 +3597,7 @@
         <v>4</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3620,7 +3626,7 @@
         <v>4</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3649,7 +3655,7 @@
         <v>4</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3678,7 +3684,7 @@
         <v>4</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3707,7 +3713,7 @@
         <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3736,7 +3742,7 @@
         <v>4</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3765,7 +3771,7 @@
         <v>4</v>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3794,7 +3800,7 @@
         <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3823,7 +3829,7 @@
         <v>4</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3852,7 +3858,7 @@
         <v>4</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3881,7 +3887,7 @@
         <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3910,7 +3916,7 @@
         <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3939,7 +3945,7 @@
         <v>4</v>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3968,7 +3974,7 @@
         <v>4</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3997,7 +4003,7 @@
         <v>4</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4026,7 +4032,7 @@
         <v>4</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4055,7 +4061,7 @@
         <v>4</v>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4084,7 +4090,7 @@
         <v>4</v>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4113,7 +4119,7 @@
         <v>4</v>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4142,7 +4148,7 @@
         <v>4</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4171,7 +4177,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4200,7 +4206,7 @@
         <v>4</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4229,7 +4235,7 @@
         <v>4</v>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4258,7 +4264,7 @@
         <v>4</v>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4287,7 +4293,7 @@
         <v>4</v>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4316,7 +4322,7 @@
         <v>4</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4345,7 +4351,7 @@
         <v>4</v>
       </c>
       <c r="I97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4374,7 +4380,7 @@
         <v>4</v>
       </c>
       <c r="I98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4403,7 +4409,7 @@
         <v>4</v>
       </c>
       <c r="I99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4432,7 +4438,7 @@
         <v>4</v>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4461,7 +4467,7 @@
         <v>4</v>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4490,7 +4496,7 @@
         <v>4</v>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4519,7 +4525,7 @@
         <v>4</v>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4548,7 +4554,7 @@
         <v>4</v>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4577,7 +4583,7 @@
         <v>4</v>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4606,7 +4612,7 @@
         <v>4</v>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4635,7 +4641,7 @@
         <v>4</v>
       </c>
       <c r="I107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4664,7 +4670,7 @@
         <v>4</v>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4693,7 +4699,7 @@
         <v>4</v>
       </c>
       <c r="I109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4722,7 +4728,7 @@
         <v>4</v>
       </c>
       <c r="I110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4751,7 +4757,7 @@
         <v>4</v>
       </c>
       <c r="I111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4780,7 +4786,7 @@
         <v>4</v>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4809,7 +4815,7 @@
         <v>4</v>
       </c>
       <c r="I113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4838,7 +4844,7 @@
         <v>4</v>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4867,7 +4873,7 @@
         <v>4</v>
       </c>
       <c r="I115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4896,7 +4902,7 @@
         <v>4</v>
       </c>
       <c r="I116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4925,7 +4931,7 @@
         <v>4</v>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4954,7 +4960,7 @@
         <v>4</v>
       </c>
       <c r="I118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4983,7 +4989,7 @@
         <v>4</v>
       </c>
       <c r="I119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -5012,7 +5018,7 @@
         <v>4</v>
       </c>
       <c r="I120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5041,7 +5047,7 @@
         <v>4</v>
       </c>
       <c r="I121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -5070,7 +5076,7 @@
         <v>4</v>
       </c>
       <c r="I122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -5099,7 +5105,7 @@
         <v>4</v>
       </c>
       <c r="I123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -5128,7 +5134,7 @@
         <v>4</v>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -5157,7 +5163,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -5186,7 +5192,7 @@
         <v>4</v>
       </c>
       <c r="I126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -5215,7 +5221,7 @@
         <v>4</v>
       </c>
       <c r="I127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5244,7 +5250,7 @@
         <v>4</v>
       </c>
       <c r="I128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -5273,7 +5279,7 @@
         <v>4</v>
       </c>
       <c r="I129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5302,7 +5308,7 @@
         <v>4</v>
       </c>
       <c r="I130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5331,7 +5337,7 @@
         <v>4</v>
       </c>
       <c r="I131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5360,7 +5366,7 @@
         <v>4</v>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5389,7 +5395,7 @@
         <v>4</v>
       </c>
       <c r="I133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5418,7 +5424,7 @@
         <v>4</v>
       </c>
       <c r="I134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5447,7 +5453,7 @@
         <v>4</v>
       </c>
       <c r="I135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5476,7 +5482,7 @@
         <v>4</v>
       </c>
       <c r="I136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5505,7 +5511,7 @@
         <v>4</v>
       </c>
       <c r="I137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5534,7 +5540,7 @@
         <v>4</v>
       </c>
       <c r="I138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5563,7 +5569,7 @@
         <v>4</v>
       </c>
       <c r="I139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5592,7 +5598,7 @@
         <v>4</v>
       </c>
       <c r="I140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5621,7 +5627,7 @@
         <v>4</v>
       </c>
       <c r="I141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5650,7 +5656,7 @@
         <v>4</v>
       </c>
       <c r="I142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5679,7 +5685,7 @@
         <v>4</v>
       </c>
       <c r="I143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5708,7 +5714,7 @@
         <v>4</v>
       </c>
       <c r="I144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5737,7 +5743,7 @@
         <v>4</v>
       </c>
       <c r="I145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5766,7 +5772,7 @@
         <v>4</v>
       </c>
       <c r="I146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5795,7 +5801,7 @@
         <v>4</v>
       </c>
       <c r="I147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5824,7 +5830,7 @@
         <v>4</v>
       </c>
       <c r="I148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5853,7 +5859,7 @@
         <v>4</v>
       </c>
       <c r="I149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5882,7 +5888,7 @@
         <v>4</v>
       </c>
       <c r="I150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5911,7 +5917,7 @@
         <v>4</v>
       </c>
       <c r="I151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5940,7 +5946,7 @@
         <v>4</v>
       </c>
       <c r="I152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5969,7 +5975,7 @@
         <v>4</v>
       </c>
       <c r="I153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5998,7 +6004,7 @@
         <v>4</v>
       </c>
       <c r="I154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -6027,7 +6033,7 @@
         <v>4</v>
       </c>
       <c r="I155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -6056,7 +6062,7 @@
         <v>4</v>
       </c>
       <c r="I156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -6085,7 +6091,7 @@
         <v>4</v>
       </c>
       <c r="I157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -6114,7 +6120,7 @@
         <v>4</v>
       </c>
       <c r="I158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -6143,7 +6149,7 @@
         <v>4</v>
       </c>
       <c r="I159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -6172,7 +6178,7 @@
         <v>4</v>
       </c>
       <c r="I160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -6201,7 +6207,7 @@
         <v>4</v>
       </c>
       <c r="I161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -6230,7 +6236,7 @@
         <v>4</v>
       </c>
       <c r="I162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -6259,7 +6265,7 @@
         <v>4</v>
       </c>
       <c r="I163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -6288,7 +6294,7 @@
         <v>4</v>
       </c>
       <c r="I164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -6317,7 +6323,7 @@
         <v>4</v>
       </c>
       <c r="I165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -6346,7 +6352,7 @@
         <v>4</v>
       </c>
       <c r="I166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -6375,7 +6381,7 @@
         <v>4</v>
       </c>
       <c r="I167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -6404,7 +6410,7 @@
         <v>4</v>
       </c>
       <c r="I168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -6433,7 +6439,7 @@
         <v>4</v>
       </c>
       <c r="I169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -6462,7 +6468,7 @@
         <v>4</v>
       </c>
       <c r="I170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -6491,7 +6497,7 @@
         <v>4</v>
       </c>
       <c r="I171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -6520,7 +6526,7 @@
         <v>4</v>
       </c>
       <c r="I172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6549,7 +6555,7 @@
         <v>4</v>
       </c>
       <c r="I173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6578,7 +6584,7 @@
         <v>4</v>
       </c>
       <c r="I174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6607,7 +6613,7 @@
         <v>4</v>
       </c>
       <c r="I175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6636,7 +6642,7 @@
         <v>4</v>
       </c>
       <c r="I176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6665,7 +6671,7 @@
         <v>4</v>
       </c>
       <c r="I177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6694,7 +6700,7 @@
         <v>4</v>
       </c>
       <c r="I178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6723,7 +6729,7 @@
         <v>4</v>
       </c>
       <c r="I179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6752,7 +6758,7 @@
         <v>4</v>
       </c>
       <c r="I180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6781,7 +6787,7 @@
         <v>4</v>
       </c>
       <c r="I181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6810,7 +6816,7 @@
         <v>4</v>
       </c>
       <c r="I182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6839,7 +6845,7 @@
         <v>4</v>
       </c>
       <c r="I183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6868,7 +6874,7 @@
         <v>4</v>
       </c>
       <c r="I184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6897,7 +6903,7 @@
         <v>4</v>
       </c>
       <c r="I185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6926,7 +6932,7 @@
         <v>4</v>
       </c>
       <c r="I186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6955,7 +6961,7 @@
         <v>4</v>
       </c>
       <c r="I187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -6984,7 +6990,7 @@
         <v>4</v>
       </c>
       <c r="I188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -7013,7 +7019,7 @@
         <v>4</v>
       </c>
       <c r="I189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -7042,7 +7048,7 @@
         <v>4</v>
       </c>
       <c r="I190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -7071,7 +7077,7 @@
         <v>4</v>
       </c>
       <c r="I191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -7100,7 +7106,7 @@
         <v>4</v>
       </c>
       <c r="I192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -7129,7 +7135,7 @@
         <v>4</v>
       </c>
       <c r="I193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -7158,7 +7164,7 @@
         <v>4</v>
       </c>
       <c r="I194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -7187,7 +7193,7 @@
         <v>4</v>
       </c>
       <c r="I195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -7216,7 +7222,7 @@
         <v>4</v>
       </c>
       <c r="I196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -7245,7 +7251,7 @@
         <v>4</v>
       </c>
       <c r="I197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -7274,7 +7280,7 @@
         <v>4</v>
       </c>
       <c r="I198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -7303,7 +7309,7 @@
         <v>4</v>
       </c>
       <c r="I199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -7332,7 +7338,7 @@
         <v>4</v>
       </c>
       <c r="I200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -7361,7 +7367,7 @@
         <v>4</v>
       </c>
       <c r="I201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -7390,7 +7396,7 @@
         <v>4</v>
       </c>
       <c r="I202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -7419,7 +7425,7 @@
         <v>4</v>
       </c>
       <c r="I203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -7448,7 +7454,7 @@
         <v>4</v>
       </c>
       <c r="I204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -7477,7 +7483,7 @@
         <v>4</v>
       </c>
       <c r="I205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -7506,7 +7512,7 @@
         <v>4</v>
       </c>
       <c r="I206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -7535,7 +7541,7 @@
         <v>4</v>
       </c>
       <c r="I207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -7564,7 +7570,7 @@
         <v>4</v>
       </c>
       <c r="I208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -7593,7 +7599,7 @@
         <v>4</v>
       </c>
       <c r="I209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -7622,7 +7628,7 @@
         <v>4</v>
       </c>
       <c r="I210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -7651,7 +7657,7 @@
         <v>4</v>
       </c>
       <c r="I211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -7680,7 +7686,36 @@
         <v>4</v>
       </c>
       <c r="I212" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>0</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1</v>
+      </c>
+      <c r="D213" t="n">
+        <v>212</v>
+      </c>
+      <c r="E213" t="s">
+        <v>389</v>
+      </c>
+      <c r="F213" t="s">
+        <v>390</v>
+      </c>
+      <c r="G213" t="n">
+        <v>9</v>
+      </c>
+      <c r="H213" t="s">
+        <v>4</v>
+      </c>
+      <c r="I213" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
